--- a/core/common/commonConfig/cAttribute.xlsx
+++ b/core/common/commonConfig/cAttribute.xlsx
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="1">
+    <comment ref="K2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="131">
   <si>
     <t>属性类型表</t>
   </si>
@@ -501,26 +501,61 @@
     <rPh sb="8" eb="9">
       <t>xu'yao</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>isSimpleUnitNeed</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>cs</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前属性是否可超过上限值</t>
+    <rPh sb="4" eb="5">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chao'guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canOverMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -598,23 +633,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -921,11 +959,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -936,13 +974,13 @@
     <col min="5" max="7" width="14.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="20.6640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="10" max="11" width="18.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="20.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -956,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -984,20 +1022,23 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1027,16 +1068,19 @@
         <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1064,11 +1108,11 @@
       <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>22</v>
@@ -1076,8 +1120,11 @@
       <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1105,20 +1152,23 @@
       <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A11" si="0">ROW()-5</f>
         <v>1</v>
@@ -1138,9 +1188,6 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
@@ -1150,8 +1197,11 @@
       <c r="M6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1165,9 +1215,6 @@
       <c r="D7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
@@ -1177,8 +1224,11 @@
       <c r="M7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1198,17 +1248,17 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1222,17 +1272,17 @@
       <c r="D9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1250,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1268,7 +1318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <f t="shared" ref="A12:A18" si="1">ROW()-5</f>
         <v>7</v>
@@ -1282,17 +1332,17 @@
       <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1306,17 +1356,17 @@
       <c r="D13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
       <c r="K13" s="1">
         <v>1</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1330,17 +1380,17 @@
       <c r="D14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
       <c r="K14" s="1">
         <v>1</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1354,11 +1404,11 @@
       <c r="D15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1372,11 +1422,11 @@
       <c r="D16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1390,11 +1440,11 @@
       <c r="D17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1408,11 +1458,11 @@
       <c r="D18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <f t="shared" ref="A19:A34" si="2">ROW()-5</f>
         <v>14</v>
@@ -1426,11 +1476,11 @@
       <c r="D19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1444,11 +1494,11 @@
       <c r="D20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1462,11 +1512,11 @@
       <c r="D21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1480,11 +1530,11 @@
       <c r="D22" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1498,11 +1548,11 @@
       <c r="D23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1516,11 +1566,11 @@
       <c r="D24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1534,14 +1584,14 @@
       <c r="D25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="5">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K25" s="5">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1555,14 +1605,14 @@
       <c r="D26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
       <c r="K26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1580,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1598,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1616,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -1634,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -1652,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -2072,7 +2122,7 @@
       <c r="D108" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -2118,7 +2168,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2132,7 +2182,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
